--- a/modelo_Felipe_FI0123_FF0125.xlsx
+++ b/modelo_Felipe_FI0123_FF0125.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo Thinkpad E14\Documents\GitHub\Arkad\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6721175D-3517-4E3D-9DC3-498FA0CFC074}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36675651-7453-4A33-BD93-A7592FFCDE09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,9 +22,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>Date</t>
-  </si>
-  <si>
     <t>Direction</t>
   </si>
   <si>
@@ -33,13 +30,16 @@
   <si>
     <t>toggle_false</t>
   </si>
+  <si>
+    <t>date</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -95,7 +95,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -401,26 +401,27 @@
   <dimension ref="A1:E526"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="24" customWidth="1"/>
+    <col min="4" max="4" width="17.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
